--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="output" localSheetId="0">Sheet1!$A$1:$F$111</definedName>
+    <definedName name="output" localSheetId="1">Sheet2!$A$1:$F$111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,11 +37,23 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="output1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Chase Lean\Desktop\Javascript\47 Learn german 2\output.csv" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Meaning</t>
   </si>
@@ -249,6 +263,99 @@
   </si>
   <si>
     <t>Ich soll zum Arzt (gehen).</t>
+  </si>
+  <si>
+    <t>sich erkälten</t>
+  </si>
+  <si>
+    <t>sich amüsieren</t>
+  </si>
+  <si>
+    <t>sich baden</t>
+  </si>
+  <si>
+    <t>sich duschen</t>
+  </si>
+  <si>
+    <t>sich waschen</t>
+  </si>
+  <si>
+    <t>sich kämmen</t>
+  </si>
+  <si>
+    <t>sich rasieren</t>
+  </si>
+  <si>
+    <t>sich beeilen</t>
+  </si>
+  <si>
+    <t>sich verspäten</t>
+  </si>
+  <si>
+    <t>sich setzen</t>
+  </si>
+  <si>
+    <t>sich fühlen</t>
+  </si>
+  <si>
+    <t>sich langweilen</t>
+  </si>
+  <si>
+    <t>sich benehmen</t>
+  </si>
+  <si>
+    <t>sich entschuldigen</t>
+  </si>
+  <si>
+    <t>sich freuen</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>to catch a cold</t>
+  </si>
+  <si>
+    <t>to enjoy oneself</t>
+  </si>
+  <si>
+    <t>to take a bath</t>
+  </si>
+  <si>
+    <t>to take a shower</t>
+  </si>
+  <si>
+    <t>to wash (oneself)</t>
+  </si>
+  <si>
+    <t>to comb oneself</t>
+  </si>
+  <si>
+    <t>to shave</t>
+  </si>
+  <si>
+    <t>to hurry</t>
+  </si>
+  <si>
+    <t>to be late</t>
+  </si>
+  <si>
+    <t>to sit down</t>
+  </si>
+  <si>
+    <t>to feel</t>
+  </si>
+  <si>
+    <t>to get bored</t>
+  </si>
+  <si>
+    <t>to behave</t>
+  </si>
+  <si>
+    <t>to apologize</t>
+  </si>
+  <si>
+    <t>to be glad</t>
   </si>
 </sst>
 </file>
@@ -305,6 +412,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -587,6 +698,153 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="output" localSheetId="0">Sheet1!$A$1:$F$111</definedName>
-    <definedName name="output" localSheetId="1">Sheet2!$A$1:$F$111</definedName>
+    <definedName name="output" localSheetId="2">Sheet2!$A$1:$F$111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
   <si>
     <t>Meaning</t>
   </si>
@@ -356,6 +357,96 @@
   </si>
   <si>
     <t>to be glad</t>
+  </si>
+  <si>
+    <t>Sie ließ ihn nicht gehen.</t>
+  </si>
+  <si>
+    <t>Sie lässt ihren Sohn schnell fahren.</t>
+  </si>
+  <si>
+    <t>Lässt du mich deinen Hund streicheln?</t>
+  </si>
+  <si>
+    <t>Das lasse ich euch nicht machen!</t>
+  </si>
+  <si>
+    <t>Er lässt seine Frau nie allein.</t>
+  </si>
+  <si>
+    <t>Lassen Sie Ihr Fahrrad hier!</t>
+  </si>
+  <si>
+    <t>Lass mich bitte nicht hier!</t>
+  </si>
+  <si>
+    <t>Den Hund mussten wir draußen lassen.</t>
+  </si>
+  <si>
+    <t>Er muss sein Auto reparieren lassen.</t>
+  </si>
+  <si>
+    <t>Er ließ seinen Brief schreiben.</t>
+  </si>
+  <si>
+    <t>Wir lassen uns ein Haus bauen.</t>
+  </si>
+  <si>
+    <t>Das Mädchen ließ sich einen Rock nähen.</t>
+  </si>
+  <si>
+    <t>Lass das!</t>
+  </si>
+  <si>
+    <t>Du musst das Rauchen lassen.</t>
+  </si>
+  <si>
+    <t>Ich kann das nicht lassen!</t>
+  </si>
+  <si>
+    <t>She didn't let him go.</t>
+  </si>
+  <si>
+    <t>She allows her son to drive fast.</t>
+  </si>
+  <si>
+    <t>Will you let me stroke your dog?</t>
+  </si>
+  <si>
+    <t>I won't let you do that!</t>
+  </si>
+  <si>
+    <t>He will never leave his wife alone.</t>
+  </si>
+  <si>
+    <t>Leave your bike here!</t>
+  </si>
+  <si>
+    <t>Please, don't leave me here!</t>
+  </si>
+  <si>
+    <t>We had to leave the dog outside.</t>
+  </si>
+  <si>
+    <t>He must have his car repaired.</t>
+  </si>
+  <si>
+    <t>He had his letter written.</t>
+  </si>
+  <si>
+    <t>We'll have a house built (for us).</t>
+  </si>
+  <si>
+    <t>The girl had a skirt sewed (for her).</t>
+  </si>
+  <si>
+    <t>Leave that alone!</t>
+  </si>
+  <si>
+    <t>You must stop smoking.</t>
+  </si>
+  <si>
+    <t>I can't stop it!</t>
   </si>
 </sst>
 </file>
@@ -684,7 +775,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -698,127 +789,127 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -828,10 +919,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>

--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>Meaning</t>
   </si>
@@ -447,16 +447,148 @@
   </si>
   <si>
     <t>I can't stop it!</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>Hemd</t>
+  </si>
+  <si>
+    <t>Hemden</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>Lüft</t>
+  </si>
+  <si>
+    <t>the air</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Winde</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>Handball</t>
+  </si>
+  <si>
+    <t>handball</t>
+  </si>
+  <si>
+    <t>Tänzerin</t>
+  </si>
+  <si>
+    <t>Tänzerinnen</t>
+  </si>
+  <si>
+    <t>dancer</t>
+  </si>
+  <si>
+    <t>Klavier</t>
+  </si>
+  <si>
+    <t>Klaviere</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>Herz</t>
+  </si>
+  <si>
+    <t>Herzen</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>schlagen (Herz)</t>
+  </si>
+  <si>
+    <t>to beat (heart)</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>to sense, to feel</t>
+  </si>
+  <si>
+    <t>bewegten</t>
+  </si>
+  <si>
+    <t>to move</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>to blow</t>
+  </si>
+  <si>
+    <t>zittern</t>
+  </si>
+  <si>
+    <t>to tremble</t>
+  </si>
+  <si>
+    <t>zischen</t>
+  </si>
+  <si>
+    <t>to hiss</t>
+  </si>
+  <si>
+    <t>höchstens</t>
+  </si>
+  <si>
+    <t>at most</t>
+  </si>
+  <si>
+    <t>lieblings-</t>
+  </si>
+  <si>
+    <t>favorite-</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Plural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,8 +614,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -784,132 +917,185 @@
     <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>130</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>115</v>
+        <v>167</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1062,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1354,6 +1540,126 @@
         <v>69</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>Meaning</t>
   </si>
@@ -449,130 +449,169 @@
     <t>I can't stop it!</t>
   </si>
   <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>Hemd</t>
-  </si>
-  <si>
-    <t>Hemden</t>
-  </si>
-  <si>
-    <t>shirt</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>Hose</t>
-  </si>
-  <si>
-    <t>pants</t>
-  </si>
-  <si>
-    <t>Lüft</t>
-  </si>
-  <si>
-    <t>the air</t>
-  </si>
-  <si>
-    <t>der</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Winde</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>Handball</t>
-  </si>
-  <si>
-    <t>handball</t>
-  </si>
-  <si>
-    <t>Tänzerin</t>
-  </si>
-  <si>
-    <t>Tänzerinnen</t>
-  </si>
-  <si>
-    <t>dancer</t>
-  </si>
-  <si>
-    <t>Klavier</t>
-  </si>
-  <si>
-    <t>Klaviere</t>
-  </si>
-  <si>
-    <t>piano</t>
-  </si>
-  <si>
-    <t>Herz</t>
-  </si>
-  <si>
-    <t>Herzen</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>schlagen (Herz)</t>
-  </si>
-  <si>
-    <t>to beat (heart)</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>to sense, to feel</t>
-  </si>
-  <si>
-    <t>bewegten</t>
-  </si>
-  <si>
-    <t>to move</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>to blow</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>to tremble</t>
-  </si>
-  <si>
-    <t>zischen</t>
-  </si>
-  <si>
-    <t>to hiss</t>
-  </si>
-  <si>
-    <t>höchstens</t>
-  </si>
-  <si>
-    <t>at most</t>
-  </si>
-  <si>
-    <t>lieblings-</t>
-  </si>
-  <si>
-    <t>favorite-</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Plural</t>
+    <t xml:space="preserve">Word </t>
+  </si>
+  <si>
+    <t>begehen</t>
+  </si>
+  <si>
+    <t>sich befinden</t>
+  </si>
+  <si>
+    <t>besuchen</t>
+  </si>
+  <si>
+    <t>besprechen</t>
+  </si>
+  <si>
+    <t>gebrauchen</t>
+  </si>
+  <si>
+    <t>erkennen</t>
+  </si>
+  <si>
+    <t>erleben</t>
+  </si>
+  <si>
+    <t>empfangen</t>
+  </si>
+  <si>
+    <t>entstehen</t>
+  </si>
+  <si>
+    <t>missbrauchen</t>
+  </si>
+  <si>
+    <t>sich verlieben</t>
+  </si>
+  <si>
+    <t>verstehen</t>
+  </si>
+  <si>
+    <t>to commit</t>
+  </si>
+  <si>
+    <t>to be located</t>
+  </si>
+  <si>
+    <t>to visit</t>
+  </si>
+  <si>
+    <t>to discuss</t>
+  </si>
+  <si>
+    <t>to make use of</t>
+  </si>
+  <si>
+    <t>to recognize</t>
+  </si>
+  <si>
+    <t>to experience</t>
+  </si>
+  <si>
+    <t>to receive</t>
+  </si>
+  <si>
+    <t>to come into existence/to develop</t>
+  </si>
+  <si>
+    <t>to abuse</t>
+  </si>
+  <si>
+    <t>to fall in love</t>
+  </si>
+  <si>
+    <t>to understand</t>
+  </si>
+  <si>
+    <t>to destroy</t>
+  </si>
+  <si>
+    <t>to disturb</t>
+  </si>
+  <si>
+    <t>zerstören</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>Sie beging Selbstmord.</t>
+  </si>
+  <si>
+    <t>Die Stadt befindet sich hier.</t>
+  </si>
+  <si>
+    <t>Ich besuchte die Kneipe.</t>
+  </si>
+  <si>
+    <t>Wir besprechen den Plan.</t>
+  </si>
+  <si>
+    <t>Das kann ich gut gebrauchen.</t>
+  </si>
+  <si>
+    <t>Sie erkannte ihn nicht.</t>
+  </si>
+  <si>
+    <t>Das musst du erleben.</t>
+  </si>
+  <si>
+    <t>Wann enstand die Mauer?</t>
+  </si>
+  <si>
+    <t>Du missbrauchst mein Vertrauen.</t>
+  </si>
+  <si>
+    <t>Sie verliebt sich nie.</t>
+  </si>
+  <si>
+    <t>Ich verstehe das nicht.</t>
+  </si>
+  <si>
+    <t>She committed suicide.</t>
+  </si>
+  <si>
+    <t>The town is located here.</t>
+  </si>
+  <si>
+    <t>I visited the bar.</t>
+  </si>
+  <si>
+    <t>We're discussing the plan.</t>
+  </si>
+  <si>
+    <t>I can make good use of that.</t>
+  </si>
+  <si>
+    <t>She didn’t recognize him.</t>
+  </si>
+  <si>
+    <t>You must experience that.</t>
+  </si>
+  <si>
+    <t>I'd like to receive my money.</t>
+  </si>
+  <si>
+    <t>When was the wall created (built)?</t>
+  </si>
+  <si>
+    <t>You're abusing my trust.</t>
+  </si>
+  <si>
+    <t>She'll never fall in love.</t>
+  </si>
+  <si>
+    <t>I don't understand that.</t>
+  </si>
+  <si>
+    <t>The animal destroyed the carpet.</t>
+  </si>
+  <si>
+    <t>Ich möchte mein Geld empfangen.</t>
+  </si>
+  <si>
+    <t>Das Tier zerstörte den Teppich.</t>
   </si>
 </sst>
 </file>
@@ -905,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -917,185 +956,229 @@
     <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>163</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>165</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>167</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="239">
   <si>
     <t>Meaning</t>
   </si>
@@ -612,6 +612,165 @@
   </si>
   <si>
     <t>Das Tier zerstörte den Teppich.</t>
+  </si>
+  <si>
+    <t>abfahren</t>
+  </si>
+  <si>
+    <t>anfangen</t>
+  </si>
+  <si>
+    <t>aufstehen</t>
+  </si>
+  <si>
+    <t>aussehen</t>
+  </si>
+  <si>
+    <t>einschlafen</t>
+  </si>
+  <si>
+    <t>loswerden</t>
+  </si>
+  <si>
+    <t>losgehen</t>
+  </si>
+  <si>
+    <t>mitkommen</t>
+  </si>
+  <si>
+    <t>nachfühlen</t>
+  </si>
+  <si>
+    <t>vorhaben</t>
+  </si>
+  <si>
+    <t>wegwerfen</t>
+  </si>
+  <si>
+    <t>zumachen</t>
+  </si>
+  <si>
+    <t>zurüuckkommen</t>
+  </si>
+  <si>
+    <t>zusammenbrechen</t>
+  </si>
+  <si>
+    <t>to depart</t>
+  </si>
+  <si>
+    <t>to start</t>
+  </si>
+  <si>
+    <t>to get up</t>
+  </si>
+  <si>
+    <t>to look</t>
+  </si>
+  <si>
+    <t>to fall asleep</t>
+  </si>
+  <si>
+    <t>to get rid of</t>
+  </si>
+  <si>
+    <t>to come along</t>
+  </si>
+  <si>
+    <t>to refill</t>
+  </si>
+  <si>
+    <t>to have planned</t>
+  </si>
+  <si>
+    <t>to throw away</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>to come back</t>
+  </si>
+  <si>
+    <t>to collapse</t>
+  </si>
+  <si>
+    <t>Der Zug fährt arb.</t>
+  </si>
+  <si>
+    <t>Der Film fängt an.</t>
+  </si>
+  <si>
+    <t>Steh auf!</t>
+  </si>
+  <si>
+    <t>Das sieht sehr gut aus.</t>
+  </si>
+  <si>
+    <t>Sie schliefen sofort ein.</t>
+  </si>
+  <si>
+    <t>Ich wurde den Wagen los.</t>
+  </si>
+  <si>
+    <t>Kommt ihr mit_</t>
+  </si>
+  <si>
+    <t>Der Kellener füllt die Gläser nach.</t>
+  </si>
+  <si>
+    <t>Was hast du jetzt vor?</t>
+  </si>
+  <si>
+    <t>Ich werfe den Stuhl weg.</t>
+  </si>
+  <si>
+    <t>Mach das Fenster zu!</t>
+  </si>
+  <si>
+    <t>Die Brücke brach zusammen.</t>
+  </si>
+  <si>
+    <t>Wann kommst du zurück?</t>
+  </si>
+  <si>
+    <t>The train is departing.</t>
+  </si>
+  <si>
+    <t>The movie is starting.</t>
+  </si>
+  <si>
+    <t>Get up!</t>
+  </si>
+  <si>
+    <t>This looks very good.</t>
+  </si>
+  <si>
+    <t>They fell asleep immediately.</t>
+  </si>
+  <si>
+    <t>I got rid of the car.</t>
+  </si>
+  <si>
+    <t>Are you coming along?</t>
+  </si>
+  <si>
+    <t>The waiter is refilling the glasses.</t>
+  </si>
+  <si>
+    <t>What are you going to do now?</t>
+  </si>
+  <si>
+    <t>I'm throwing the chair away.</t>
+  </si>
+  <si>
+    <t>Close the window!</t>
+  </si>
+  <si>
+    <t>When will you come back?</t>
+  </si>
+  <si>
+    <t>The bridge collapsed.</t>
   </si>
 </sst>
 </file>
@@ -946,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -967,218 +1126,218 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1324,6 +1483,118 @@
         <v>84</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1331,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1743,6 +2014,110 @@
         <v>115</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="263">
   <si>
     <t>Meaning</t>
   </si>
@@ -650,9 +650,6 @@
     <t>zumachen</t>
   </si>
   <si>
-    <t>zurüuckkommen</t>
-  </si>
-  <si>
     <t>zusammenbrechen</t>
   </si>
   <si>
@@ -695,9 +692,6 @@
     <t>to collapse</t>
   </si>
   <si>
-    <t>Der Zug fährt arb.</t>
-  </si>
-  <si>
     <t>Der Film fängt an.</t>
   </si>
   <si>
@@ -713,9 +707,6 @@
     <t>Ich wurde den Wagen los.</t>
   </si>
   <si>
-    <t>Kommt ihr mit_</t>
-  </si>
-  <si>
     <t>Der Kellener füllt die Gläser nach.</t>
   </si>
   <si>
@@ -771,6 +762,87 @@
   </si>
   <si>
     <t>The bridge collapsed.</t>
+  </si>
+  <si>
+    <t>zurückkommen</t>
+  </si>
+  <si>
+    <t>Der Zug fährt ab.</t>
+  </si>
+  <si>
+    <t>Kommt ihr mit?</t>
+  </si>
+  <si>
+    <t>to set off</t>
+  </si>
+  <si>
+    <t>durchfallen</t>
+  </si>
+  <si>
+    <t>umdenken</t>
+  </si>
+  <si>
+    <t>untergehen</t>
+  </si>
+  <si>
+    <t>widerspiegeln</t>
+  </si>
+  <si>
+    <t>wiederkehren</t>
+  </si>
+  <si>
+    <t>überkippen</t>
+  </si>
+  <si>
+    <t>to think over</t>
+  </si>
+  <si>
+    <t>to fail</t>
+  </si>
+  <si>
+    <t>to survive</t>
+  </si>
+  <si>
+    <t>to tip over</t>
+  </si>
+  <si>
+    <t>to avoid</t>
+  </si>
+  <si>
+    <t>to rethink</t>
+  </si>
+  <si>
+    <t>to interrupt</t>
+  </si>
+  <si>
+    <t>to sink</t>
+  </si>
+  <si>
+    <t>to cancel</t>
+  </si>
+  <si>
+    <t>to repeat</t>
+  </si>
+  <si>
+    <t>to reflect</t>
+  </si>
+  <si>
+    <t>durchdenken*</t>
+  </si>
+  <si>
+    <t>überleben*</t>
+  </si>
+  <si>
+    <t>umgehen*</t>
+  </si>
+  <si>
+    <t>unterbrechen*</t>
+  </si>
+  <si>
+    <t>widerrufen*</t>
+  </si>
+  <si>
+    <t>wiederholen*</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1126,218 +1198,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1347,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1595,6 +1547,118 @@
         <v>159</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1602,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -2118,6 +2182,110 @@
         <v>183</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/german_words.xlsx
+++ b/german_words.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="325">
   <si>
     <t>Meaning</t>
   </si>
@@ -843,6 +843,192 @@
   </si>
   <si>
     <t>wiederholen*</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>gefallen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>antworten</t>
+  </si>
+  <si>
+    <t>gehorchen</t>
+  </si>
+  <si>
+    <t>befehlen</t>
+  </si>
+  <si>
+    <t>glauben</t>
+  </si>
+  <si>
+    <t>gratulieren</t>
+  </si>
+  <si>
+    <t>passieren</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>vertrauen</t>
+  </si>
+  <si>
+    <t>begegnen</t>
+  </si>
+  <si>
+    <t>verzeihen</t>
+  </si>
+  <si>
+    <t>gelingen</t>
+  </si>
+  <si>
+    <t>to thank</t>
+  </si>
+  <si>
+    <t>to be missing</t>
+  </si>
+  <si>
+    <t>to please</t>
+  </si>
+  <si>
+    <t>to follow</t>
+  </si>
+  <si>
+    <t>to answer</t>
+  </si>
+  <si>
+    <t>to resemble</t>
+  </si>
+  <si>
+    <t>to obey</t>
+  </si>
+  <si>
+    <t>to belong to</t>
+  </si>
+  <si>
+    <t>to be enough</t>
+  </si>
+  <si>
+    <t>to command</t>
+  </si>
+  <si>
+    <t>to believe</t>
+  </si>
+  <si>
+    <t>to congratulate</t>
+  </si>
+  <si>
+    <t>to happen</t>
+  </si>
+  <si>
+    <t>to fit, to suit</t>
+  </si>
+  <si>
+    <t>to taste good</t>
+  </si>
+  <si>
+    <t>to trust</t>
+  </si>
+  <si>
+    <t>to forgive</t>
+  </si>
+  <si>
+    <t>to be a success</t>
+  </si>
+  <si>
+    <t>ähneln</t>
+  </si>
+  <si>
+    <t>genügen</t>
+  </si>
+  <si>
+    <t>to meet, to encounter</t>
+  </si>
+  <si>
+    <t>gehören</t>
+  </si>
+  <si>
+    <t>zustimmen</t>
+  </si>
+  <si>
+    <t>to agree</t>
+  </si>
+  <si>
+    <t>Dem Kind fehlen seine Eltern.</t>
+  </si>
+  <si>
+    <t>Folgt den Frauen nicht!</t>
+  </si>
+  <si>
+    <t>Antworte deiner Mutter!</t>
+  </si>
+  <si>
+    <t>Das Kind gehorcht seinen Eltern nicht.</t>
+  </si>
+  <si>
+    <t>Der General befiehlt den Soldaten.</t>
+  </si>
+  <si>
+    <t>I'd like to thank my son.</t>
+  </si>
+  <si>
+    <t>The child is missing its parents.</t>
+  </si>
+  <si>
+    <t>The man likes the house.</t>
+  </si>
+  <si>
+    <t>Don't follow the women.</t>
+  </si>
+  <si>
+    <t>Answer your mother!</t>
+  </si>
+  <si>
+    <t>She resembles her mother.</t>
+  </si>
+  <si>
+    <t>The child doesn't obey its parents.</t>
+  </si>
+  <si>
+    <t>This car belongs to a doctor.</t>
+  </si>
+  <si>
+    <t>Ich möchte meinem Sohn danken.</t>
+  </si>
+  <si>
+    <t>Das Haus gefällt dem Mann.</t>
+  </si>
+  <si>
+    <t>Sie ähnelt ihrer Mutter.</t>
+  </si>
+  <si>
+    <t>Dieser Wagen gehört einem Arzt.</t>
+  </si>
+  <si>
+    <t>Das Geld genügt dem Dieb nicht.</t>
+  </si>
+  <si>
+    <t>The money isn't enough for the thief.</t>
+  </si>
+  <si>
+    <t>The general orders the soldiers.</t>
+  </si>
+  <si>
+    <t>Ich stimme dir zu.</t>
+  </si>
+  <si>
+    <t>I agree with you.</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1198,98 +1384,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -1657,6 +1835,262 @@
       </c>
       <c r="B44" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>299</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
